--- a/results/MD/md_areas.xlsx
+++ b/results/MD/md_areas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11003"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11005"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/pg/results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/pg/results/MD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F89B01D4-7EC5-B64C-AC6A-AE9A1A52856E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F621E070-A9C3-2C43-92F6-961B3BC5D26C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11580" yWindow="5400" windowWidth="28040" windowHeight="17440" xr2:uid="{E98EC71D-BC74-9C4A-9693-7FC8104C88CD}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="MD_areas" localSheetId="0">Sheet1!$A$1:$D$72</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +41,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{DBE5C74A-696B-854E-9018-5925406BC5A1}" name="MD_areas" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/alecramsay/Documents/dev/pg/results/MD_areas.csv" comma="1">
+    <textPr sourceFile="/Users/alecramsay/Documents/dev/pg/results/MD/MD_areas.csv" comma="1">
       <textFields count="4">
         <textField/>
         <textField type="text"/>
@@ -326,7 +326,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -334,17 +334,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -670,15 +685,15 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2:F72"/>
+      <selection pane="bottomRight" activeCell="F23" sqref="A23:F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -688,10 +703,10 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -708,10 +723,10 @@
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="6">
         <v>12092</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="6">
         <v>523334</v>
       </c>
       <c r="E2" s="4">
@@ -730,10 +745,10 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="6">
         <v>7794</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="6">
         <v>472338</v>
       </c>
       <c r="E3" s="4">
@@ -750,21 +765,21 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4">
-        <v>6686</v>
-      </c>
-      <c r="D4">
-        <v>180688</v>
+        <v>7</v>
+      </c>
+      <c r="C4" s="6">
+        <v>4485</v>
+      </c>
+      <c r="D4" s="6">
+        <v>454810</v>
       </c>
       <c r="E4" s="4">
         <f>SUM(C$2:C4)/SUM(C$2:C$72)</f>
-        <v>0.31780127254461082</v>
+        <v>0.29147729990910398</v>
       </c>
       <c r="F4" s="4">
         <f>SUM(D$2:D4)/SUM(D$2:D$72)</f>
-        <v>0.19043505626475582</v>
+        <v>0.23481130035109621</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -772,21 +787,21 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>4485</v>
-      </c>
-      <c r="D5">
-        <v>454810</v>
+        <v>8</v>
+      </c>
+      <c r="C5" s="6">
+        <v>4298</v>
+      </c>
+      <c r="D5" s="6">
+        <v>409274</v>
       </c>
       <c r="E5" s="4">
         <f>SUM(C$2:C5)/SUM(C$2:C$72)</f>
-        <v>0.37144189829211116</v>
+        <v>0.3428814045830742</v>
       </c>
       <c r="F5" s="4">
         <f>SUM(D$2:D5)/SUM(D$2:D$72)</f>
-        <v>0.26406197994438924</v>
+        <v>0.30106662798694039</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -794,21 +809,21 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6">
-        <v>4298</v>
-      </c>
-      <c r="D6">
-        <v>409274</v>
+        <v>10</v>
+      </c>
+      <c r="C6" s="6">
+        <v>3654</v>
+      </c>
+      <c r="D6" s="6">
+        <v>369188</v>
       </c>
       <c r="E6" s="4">
         <f>SUM(C$2:C6)/SUM(C$2:C$72)</f>
-        <v>0.42284600296608144</v>
+        <v>0.38658326555996747</v>
       </c>
       <c r="F6" s="4">
         <f>SUM(D$2:D6)/SUM(D$2:D$72)</f>
-        <v>0.33031730758023348</v>
+        <v>0.36083263291083501</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -818,19 +833,19 @@
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="6">
         <v>3887</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="6">
         <v>282303</v>
       </c>
       <c r="E7" s="4">
         <f>SUM(C$2:C7)/SUM(C$2:C$72)</f>
-        <v>0.46933454528058172</v>
+        <v>0.43307180787446781</v>
       </c>
       <c r="F7" s="4">
         <f>SUM(D$2:D7)/SUM(D$2:D$72)</f>
-        <v>0.37601793297442349</v>
+        <v>0.40653325830502501</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -838,43 +853,43 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8">
-        <v>3654</v>
-      </c>
-      <c r="D8">
-        <v>369188</v>
+        <v>15</v>
+      </c>
+      <c r="C8" s="6">
+        <v>2159</v>
+      </c>
+      <c r="D8" s="6">
+        <v>281766</v>
       </c>
       <c r="E8" s="4">
         <f>SUM(C$2:C8)/SUM(C$2:C$72)</f>
-        <v>0.51303640625747504</v>
+        <v>0.45889346026886091</v>
       </c>
       <c r="F8" s="4">
         <f>SUM(D$2:D8)/SUM(D$2:D$72)</f>
-        <v>0.4357839378983181</v>
+        <v>0.45214695144615119</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9">
-        <v>2990</v>
-      </c>
-      <c r="D9">
-        <v>70037</v>
-      </c>
-      <c r="E9" s="4">
+      <c r="B9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="9">
+        <v>2048</v>
+      </c>
+      <c r="D9" s="9">
+        <v>252839</v>
+      </c>
+      <c r="E9" s="10">
         <f>SUM(C$2:C9)/SUM(C$2:C$72)</f>
-        <v>0.54879682342247527</v>
-      </c>
-      <c r="F9" s="4">
+        <v>0.48338755202602496</v>
+      </c>
+      <c r="F9" s="10">
         <f>SUM(D$2:D9)/SUM(D$2:D$72)</f>
-        <v>0.44712187869502545</v>
+        <v>0.49307779675789642</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -882,21 +897,21 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10">
-        <v>2564</v>
-      </c>
-      <c r="D10">
-        <v>172891</v>
+        <v>18</v>
+      </c>
+      <c r="C10" s="6">
+        <v>1855</v>
+      </c>
+      <c r="D10" s="6">
+        <v>226056</v>
       </c>
       <c r="E10" s="4">
         <f>SUM(C$2:C10)/SUM(C$2:C$72)</f>
-        <v>0.57946227814189355</v>
+        <v>0.50557336267521413</v>
       </c>
       <c r="F10" s="4">
         <f>SUM(D$2:D10)/SUM(D$2:D$72)</f>
-        <v>0.47511034082623521</v>
+        <v>0.52967287571245592</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -904,21 +919,21 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11">
-        <v>2217</v>
-      </c>
-      <c r="D11">
-        <v>113370</v>
+        <v>22</v>
+      </c>
+      <c r="C11" s="6">
+        <v>1192</v>
+      </c>
+      <c r="D11" s="6">
+        <v>204894</v>
       </c>
       <c r="E11" s="4">
         <f>SUM(C$2:C11)/SUM(C$2:C$72)</f>
-        <v>0.60597761086925317</v>
+        <v>0.51982968951825093</v>
       </c>
       <c r="F11" s="4">
         <f>SUM(D$2:D11)/SUM(D$2:D$72)</f>
-        <v>0.49346324497865063</v>
+        <v>0.56284214397923726</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -926,21 +941,21 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12">
-        <v>2177</v>
-      </c>
-      <c r="D12">
-        <v>164314</v>
+        <v>6</v>
+      </c>
+      <c r="C12" s="6">
+        <v>6686</v>
+      </c>
+      <c r="D12" s="6">
+        <v>180688</v>
       </c>
       <c r="E12" s="4">
         <f>SUM(C$2:C12)/SUM(C$2:C$72)</f>
-        <v>0.63201454336698082</v>
+        <v>0.59979428790125822</v>
       </c>
       <c r="F12" s="4">
         <f>SUM(D$2:D12)/SUM(D$2:D$72)</f>
-        <v>0.52006321933606425</v>
+        <v>0.59209282357253035</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -948,21 +963,21 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13">
-        <v>2159</v>
-      </c>
-      <c r="D13">
-        <v>281766</v>
+        <v>12</v>
+      </c>
+      <c r="C13" s="6">
+        <v>2564</v>
+      </c>
+      <c r="D13" s="6">
+        <v>172891</v>
       </c>
       <c r="E13" s="4">
         <f>SUM(C$2:C13)/SUM(C$2:C$72)</f>
-        <v>0.65783619576137398</v>
+        <v>0.6304597426206765</v>
       </c>
       <c r="F13" s="4">
         <f>SUM(D$2:D13)/SUM(D$2:D$72)</f>
-        <v>0.56567691247719043</v>
+        <v>0.6200812857037401</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -970,21 +985,21 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14">
-        <v>2048</v>
-      </c>
-      <c r="D14">
-        <v>252839</v>
+        <v>14</v>
+      </c>
+      <c r="C14" s="6">
+        <v>2177</v>
+      </c>
+      <c r="D14" s="6">
+        <v>164314</v>
       </c>
       <c r="E14" s="4">
         <f>SUM(C$2:C14)/SUM(C$2:C$72)</f>
-        <v>0.68233028751853797</v>
+        <v>0.65649667511840404</v>
       </c>
       <c r="F14" s="4">
         <f>SUM(D$2:D14)/SUM(D$2:D$72)</f>
-        <v>0.60660775778893561</v>
+        <v>0.64668126006115367</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -992,21 +1007,21 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15">
-        <v>2005</v>
-      </c>
-      <c r="D15">
-        <v>103725</v>
+        <v>19</v>
+      </c>
+      <c r="C15" s="6">
+        <v>1657</v>
+      </c>
+      <c r="D15" s="6">
+        <v>125608</v>
       </c>
       <c r="E15" s="4">
         <f>SUM(C$2:C15)/SUM(C$2:C$72)</f>
-        <v>0.70631009902884756</v>
+        <v>0.67631440463091419</v>
       </c>
       <c r="F15" s="4">
         <f>SUM(D$2:D15)/SUM(D$2:D$72)</f>
-        <v>0.62339928097151731</v>
+        <v>0.66701531302734041</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -1014,21 +1029,21 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16">
-        <v>1855</v>
-      </c>
-      <c r="D16">
-        <v>226056</v>
+        <v>24</v>
+      </c>
+      <c r="C16" s="6">
+        <v>1174</v>
+      </c>
+      <c r="D16" s="6">
+        <v>125270</v>
       </c>
       <c r="E16" s="4">
         <f>SUM(C$2:C16)/SUM(C$2:C$72)</f>
-        <v>0.72849590967803668</v>
+        <v>0.69035545137061671</v>
       </c>
       <c r="F16" s="4">
         <f>SUM(D$2:D16)/SUM(D$2:D$72)</f>
-        <v>0.6599943599260768</v>
+        <v>0.6872946488584516</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -1036,21 +1051,21 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17">
-        <v>1657</v>
-      </c>
-      <c r="D17">
-        <v>125608</v>
+        <v>21</v>
+      </c>
+      <c r="C17" s="6">
+        <v>1201</v>
+      </c>
+      <c r="D17" s="6">
+        <v>118051</v>
       </c>
       <c r="E17" s="4">
         <f>SUM(C$2:C17)/SUM(C$2:C$72)</f>
-        <v>0.74831363919054683</v>
+        <v>0.70471941826532081</v>
       </c>
       <c r="F17" s="4">
         <f>SUM(D$2:D17)/SUM(D$2:D$72)</f>
-        <v>0.68032841289226353</v>
+        <v>0.70640533676615902</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -1058,21 +1073,21 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18">
-        <v>1264</v>
-      </c>
-      <c r="D18">
-        <v>33293</v>
+        <v>13</v>
+      </c>
+      <c r="C18" s="6">
+        <v>2217</v>
+      </c>
+      <c r="D18" s="6">
+        <v>113370</v>
       </c>
       <c r="E18" s="4">
         <f>SUM(C$2:C18)/SUM(C$2:C$72)</f>
-        <v>0.76343108644692148</v>
+        <v>0.73123475099268043</v>
       </c>
       <c r="F18" s="4">
         <f>SUM(D$2:D18)/SUM(D$2:D$72)</f>
-        <v>0.68571805069720637</v>
+        <v>0.72475824091857444</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -1080,21 +1095,21 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19">
-        <v>1201</v>
-      </c>
-      <c r="D19">
-        <v>118051</v>
+        <v>17</v>
+      </c>
+      <c r="C19" s="6">
+        <v>2005</v>
+      </c>
+      <c r="D19" s="6">
+        <v>103725</v>
       </c>
       <c r="E19" s="4">
         <f>SUM(C$2:C19)/SUM(C$2:C$72)</f>
-        <v>0.77779505334162558</v>
+        <v>0.75521456250299002</v>
       </c>
       <c r="F19" s="4">
         <f>SUM(D$2:D19)/SUM(D$2:D$72)</f>
-        <v>0.7048287386049138</v>
+        <v>0.74154976410115614</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -1102,21 +1117,21 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20">
-        <v>1192</v>
-      </c>
-      <c r="D20">
-        <v>204894</v>
+        <v>25</v>
+      </c>
+      <c r="C20" s="6">
+        <v>967</v>
+      </c>
+      <c r="D20" s="6">
+        <v>97954</v>
       </c>
       <c r="E20" s="4">
         <f>SUM(C$2:C20)/SUM(C$2:C$72)</f>
-        <v>0.79205138018466248</v>
+        <v>0.76677988805434627</v>
       </c>
       <c r="F20" s="4">
         <f>SUM(D$2:D20)/SUM(D$2:D$72)</f>
-        <v>0.73799800687169514</v>
+        <v>0.75740704886207788</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -1124,21 +1139,21 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21">
-        <v>1180</v>
-      </c>
-      <c r="D21">
-        <v>92783</v>
+        <v>28</v>
+      </c>
+      <c r="C21" s="6">
+        <v>877</v>
+      </c>
+      <c r="D21" s="6">
+        <v>96610</v>
       </c>
       <c r="E21" s="4">
         <f>SUM(C$2:C21)/SUM(C$2:C$72)</f>
-        <v>0.80616418695880976</v>
+        <v>0.77726881308903029</v>
       </c>
       <c r="F21" s="4">
         <f>SUM(D$2:D21)/SUM(D$2:D$72)</f>
-        <v>0.7530181842199668</v>
+        <v>0.77304676016281748</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -1146,43 +1161,43 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22">
-        <v>1174</v>
-      </c>
-      <c r="D22">
-        <v>125270</v>
+        <v>23</v>
+      </c>
+      <c r="C22" s="6">
+        <v>1180</v>
+      </c>
+      <c r="D22" s="6">
+        <v>92783</v>
       </c>
       <c r="E22" s="4">
         <f>SUM(C$2:C22)/SUM(C$2:C$72)</f>
-        <v>0.82020523369851217</v>
+        <v>0.79138161986317757</v>
       </c>
       <c r="F22" s="4">
         <f>SUM(D$2:D22)/SUM(D$2:D$72)</f>
-        <v>0.77329752005107799</v>
+        <v>0.78806693751108914</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23">
+      <c r="A23" s="7">
         <v>22</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23">
-        <v>967</v>
-      </c>
-      <c r="D23">
-        <v>97954</v>
-      </c>
-      <c r="E23" s="4">
+      <c r="B23" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="9">
+        <v>633</v>
+      </c>
+      <c r="D23" s="9">
+        <v>92448</v>
+      </c>
+      <c r="E23" s="10">
         <f>SUM(C$2:C23)/SUM(C$2:C$72)</f>
-        <v>0.83177055924986842</v>
-      </c>
-      <c r="F23" s="4">
+        <v>0.79895230349710566</v>
+      </c>
+      <c r="F23" s="10">
         <f>SUM(D$2:D23)/SUM(D$2:D$72)</f>
-        <v>0.78915480481199973</v>
+        <v>0.80303288337933021</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -1190,21 +1205,21 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24">
-        <v>959</v>
-      </c>
-      <c r="D24">
-        <v>33766</v>
+        <v>29</v>
+      </c>
+      <c r="C24" s="6">
+        <v>752</v>
+      </c>
+      <c r="D24" s="6">
+        <v>91426</v>
       </c>
       <c r="E24" s="4">
         <f>SUM(C$2:C24)/SUM(C$2:C$72)</f>
-        <v>0.84324020475529826</v>
+        <v>0.80794622781418934</v>
       </c>
       <c r="F24" s="4">
         <f>SUM(D$2:D24)/SUM(D$2:D$72)</f>
-        <v>0.7946210142290453</v>
+        <v>0.81783338276222461</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -1212,21 +1227,21 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25">
-        <v>932</v>
-      </c>
-      <c r="D25">
-        <v>53534</v>
+        <v>36</v>
+      </c>
+      <c r="C25" s="6">
+        <v>526</v>
+      </c>
+      <c r="D25" s="6">
+        <v>71931</v>
       </c>
       <c r="E25" s="4">
         <f>SUM(C$2:C25)/SUM(C$2:C$72)</f>
-        <v>0.85438693010572642</v>
+        <v>0.8142371908338516</v>
       </c>
       <c r="F25" s="4">
         <f>SUM(D$2:D25)/SUM(D$2:D$72)</f>
-        <v>0.80328736662293609</v>
+        <v>0.82947793377737311</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -1234,21 +1249,21 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26">
-        <v>877</v>
-      </c>
-      <c r="D26">
-        <v>96610</v>
+        <v>11</v>
+      </c>
+      <c r="C26" s="6">
+        <v>2990</v>
+      </c>
+      <c r="D26" s="6">
+        <v>70037</v>
       </c>
       <c r="E26" s="4">
         <f>SUM(C$2:C26)/SUM(C$2:C$72)</f>
-        <v>0.86487585514041043</v>
+        <v>0.84999760799885182</v>
       </c>
       <c r="F26" s="4">
         <f>SUM(D$2:D26)/SUM(D$2:D$72)</f>
-        <v>0.81892707792367569</v>
+        <v>0.84081587457408058</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -1256,21 +1271,21 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27">
-        <v>752</v>
-      </c>
-      <c r="D27">
-        <v>91426</v>
+        <v>38</v>
+      </c>
+      <c r="C27" s="6">
+        <v>493</v>
+      </c>
+      <c r="D27" s="6">
+        <v>66602</v>
       </c>
       <c r="E27" s="4">
         <f>SUM(C$2:C27)/SUM(C$2:C$72)</f>
-        <v>0.87386977945749411</v>
+        <v>0.85589389082906764</v>
       </c>
       <c r="F27" s="4">
         <f>SUM(D$2:D27)/SUM(D$2:D$72)</f>
-        <v>0.8337275773065701</v>
+        <v>0.85159774034420643</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -1278,21 +1293,21 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28">
-        <v>743</v>
-      </c>
-      <c r="D28">
-        <v>44644</v>
+        <v>31</v>
+      </c>
+      <c r="C28" s="6">
+        <v>658</v>
+      </c>
+      <c r="D28" s="6">
+        <v>58601</v>
       </c>
       <c r="E28" s="4">
         <f>SUM(C$2:C28)/SUM(C$2:C$72)</f>
-        <v>0.8827560637229106</v>
+        <v>0.86376357460651576</v>
       </c>
       <c r="F28" s="4">
         <f>SUM(D$2:D28)/SUM(D$2:D$72)</f>
-        <v>0.84095477191696466</v>
+        <v>0.86108436410918565</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -1300,21 +1315,21 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29">
-        <v>658</v>
-      </c>
-      <c r="D29">
-        <v>58601</v>
+        <v>32</v>
+      </c>
+      <c r="C29" s="6">
+        <v>637</v>
+      </c>
+      <c r="D29" s="6">
+        <v>56995</v>
       </c>
       <c r="E29" s="4">
         <f>SUM(C$2:C29)/SUM(C$2:C$72)</f>
-        <v>0.89062574750035883</v>
+        <v>0.87138209826340718</v>
       </c>
       <c r="F29" s="4">
         <f>SUM(D$2:D29)/SUM(D$2:D$72)</f>
-        <v>0.85044139568194388</v>
+        <v>0.8703110005400484</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -1322,21 +1337,21 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30">
-        <v>637</v>
-      </c>
-      <c r="D30">
-        <v>56995</v>
+        <v>27</v>
+      </c>
+      <c r="C30" s="6">
+        <v>932</v>
+      </c>
+      <c r="D30" s="6">
+        <v>53534</v>
       </c>
       <c r="E30" s="4">
         <f>SUM(C$2:C30)/SUM(C$2:C$72)</f>
-        <v>0.89824427115725014</v>
+        <v>0.88252882361383533</v>
       </c>
       <c r="F30" s="4">
         <f>SUM(D$2:D30)/SUM(D$2:D$72)</f>
-        <v>0.85966803211280662</v>
+        <v>0.8789773529339393</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -1344,21 +1359,21 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C31">
-        <v>633</v>
-      </c>
-      <c r="D31">
-        <v>92448</v>
+        <v>40</v>
+      </c>
+      <c r="C31" s="6">
+        <v>431</v>
+      </c>
+      <c r="D31" s="6">
+        <v>49623</v>
       </c>
       <c r="E31" s="4">
         <f>SUM(C$2:C31)/SUM(C$2:C$72)</f>
-        <v>0.90581495479117835</v>
+        <v>0.88768358608812137</v>
       </c>
       <c r="F31" s="4">
         <f>SUM(D$2:D31)/SUM(D$2:D$72)</f>
-        <v>0.87463397798104781</v>
+        <v>0.8870105730341008</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -1366,21 +1381,21 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32">
-        <v>561</v>
-      </c>
-      <c r="D32">
-        <v>32398</v>
+        <v>42</v>
+      </c>
+      <c r="C32" s="6">
+        <v>381</v>
+      </c>
+      <c r="D32" s="6">
+        <v>48838</v>
       </c>
       <c r="E32" s="4">
         <f>SUM(C$2:C32)/SUM(C$2:C$72)</f>
-        <v>0.91252451801176859</v>
+        <v>0.89224034827536713</v>
       </c>
       <c r="F32" s="4">
         <f>SUM(D$2:D32)/SUM(D$2:D$72)</f>
-        <v>0.8798787286975509</v>
+        <v>0.89491671339747436</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -1388,21 +1403,21 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C33">
-        <v>539</v>
-      </c>
-      <c r="D33">
-        <v>26865</v>
+        <v>41</v>
+      </c>
+      <c r="C33" s="6">
+        <v>393</v>
+      </c>
+      <c r="D33" s="6">
+        <v>47591</v>
       </c>
       <c r="E33" s="4">
         <f>SUM(C$2:C33)/SUM(C$2:C$72)</f>
-        <v>0.91897096110606136</v>
+        <v>0.89694063053150264</v>
       </c>
       <c r="F33" s="4">
         <f>SUM(D$2:D33)/SUM(D$2:D$72)</f>
-        <v>0.88422776962596794</v>
+        <v>0.90262098314712236</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -1410,21 +1425,21 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C34">
-        <v>526</v>
-      </c>
-      <c r="D34">
-        <v>71931</v>
+        <v>30</v>
+      </c>
+      <c r="C34" s="6">
+        <v>743</v>
+      </c>
+      <c r="D34" s="6">
+        <v>44644</v>
       </c>
       <c r="E34" s="4">
         <f>SUM(C$2:C34)/SUM(C$2:C$72)</f>
-        <v>0.92526192412572361</v>
+        <v>0.90582691479691912</v>
       </c>
       <c r="F34" s="4">
         <f>SUM(D$2:D34)/SUM(D$2:D$72)</f>
-        <v>0.89587232064111644</v>
+        <v>0.90984817775751692</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -1434,19 +1449,19 @@
       <c r="B35" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="6">
         <v>494</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="6">
         <v>38129</v>
       </c>
       <c r="E35" s="4">
         <f>SUM(C$2:C35)/SUM(C$2:C$72)</f>
-        <v>0.93117016696168009</v>
+        <v>0.91173515763287571</v>
       </c>
       <c r="F35" s="4">
         <f>SUM(D$2:D35)/SUM(D$2:D$72)</f>
-        <v>0.90204483437867888</v>
+        <v>0.91602069149507936</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -1454,21 +1469,21 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C36">
-        <v>493</v>
-      </c>
-      <c r="D36">
-        <v>66602</v>
+        <v>43</v>
+      </c>
+      <c r="C36" s="6">
+        <v>356</v>
+      </c>
+      <c r="D36" s="6">
+        <v>36616</v>
       </c>
       <c r="E36" s="4">
         <f>SUM(C$2:C36)/SUM(C$2:C$72)</f>
-        <v>0.93706644979189591</v>
+        <v>0.91599291967660146</v>
       </c>
       <c r="F36" s="4">
         <f>SUM(D$2:D36)/SUM(D$2:D$72)</f>
-        <v>0.91282670014880474</v>
+        <v>0.92194827320492179</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -1476,21 +1491,21 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C37">
-        <v>450</v>
-      </c>
-      <c r="D37">
-        <v>20915</v>
+        <v>52</v>
+      </c>
+      <c r="C37" s="6">
+        <v>165</v>
+      </c>
+      <c r="D37" s="6">
+        <v>34100</v>
       </c>
       <c r="E37" s="4">
         <f>SUM(C$2:C37)/SUM(C$2:C$72)</f>
-        <v>0.9424484523752571</v>
+        <v>0.91796632062383388</v>
       </c>
       <c r="F37" s="4">
         <f>SUM(D$2:D37)/SUM(D$2:D$72)</f>
-        <v>0.91621252523787389</v>
+        <v>0.92746855221698288</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -1498,21 +1513,21 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C38">
-        <v>431</v>
-      </c>
-      <c r="D38">
-        <v>49623</v>
+        <v>26</v>
+      </c>
+      <c r="C38" s="6">
+        <v>959</v>
+      </c>
+      <c r="D38" s="6">
+        <v>33766</v>
       </c>
       <c r="E38" s="4">
         <f>SUM(C$2:C38)/SUM(C$2:C$72)</f>
-        <v>0.94760321484954313</v>
+        <v>0.92943596612926371</v>
       </c>
       <c r="F38" s="4">
         <f>SUM(D$2:D38)/SUM(D$2:D$72)</f>
-        <v>0.92424574533803538</v>
+        <v>0.93293476163402844</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -1520,21 +1535,21 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C39">
-        <v>393</v>
-      </c>
-      <c r="D39">
-        <v>47591</v>
+        <v>20</v>
+      </c>
+      <c r="C39" s="6">
+        <v>1264</v>
+      </c>
+      <c r="D39" s="6">
+        <v>33293</v>
       </c>
       <c r="E39" s="4">
         <f>SUM(C$2:C39)/SUM(C$2:C$72)</f>
-        <v>0.95230349710567863</v>
+        <v>0.94455341338563847</v>
       </c>
       <c r="F39" s="4">
         <f>SUM(D$2:D39)/SUM(D$2:D$72)</f>
-        <v>0.93195001508768338</v>
+        <v>0.93832439943897128</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -1542,21 +1557,21 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C40">
-        <v>381</v>
-      </c>
-      <c r="D40">
-        <v>48838</v>
+        <v>34</v>
+      </c>
+      <c r="C40" s="6">
+        <v>561</v>
+      </c>
+      <c r="D40" s="6">
+        <v>32398</v>
       </c>
       <c r="E40" s="4">
         <f>SUM(C$2:C40)/SUM(C$2:C$72)</f>
-        <v>0.95686025929292451</v>
+        <v>0.95126297660622872</v>
       </c>
       <c r="F40" s="4">
         <f>SUM(D$2:D40)/SUM(D$2:D$72)</f>
-        <v>0.93985615545105694</v>
+        <v>0.94356915015547438</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -1564,21 +1579,21 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C41">
-        <v>356</v>
-      </c>
-      <c r="D41">
-        <v>36616</v>
+        <v>50</v>
+      </c>
+      <c r="C41" s="6">
+        <v>174</v>
+      </c>
+      <c r="D41" s="6">
+        <v>29977</v>
       </c>
       <c r="E41" s="4">
         <f>SUM(C$2:C41)/SUM(C$2:C$72)</f>
-        <v>0.96111802133665025</v>
+        <v>0.95334401760512844</v>
       </c>
       <c r="F41" s="4">
         <f>SUM(D$2:D41)/SUM(D$2:D$72)</f>
-        <v>0.94578373716089947</v>
+        <v>0.94842197725062261</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -1586,21 +1601,21 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C42">
-        <v>334</v>
-      </c>
-      <c r="D42">
-        <v>6046</v>
+        <v>45</v>
+      </c>
+      <c r="C42" s="6">
+        <v>277</v>
+      </c>
+      <c r="D42" s="6">
+        <v>28700</v>
       </c>
       <c r="E42" s="4">
         <f>SUM(C$2:C42)/SUM(C$2:C$72)</f>
-        <v>0.96511266325407841</v>
+        <v>0.95665693919533079</v>
       </c>
       <c r="F42" s="4">
         <f>SUM(D$2:D42)/SUM(D$2:D$72)</f>
-        <v>0.94676249396168899</v>
+        <v>0.95306807718159481</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -1608,21 +1623,21 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C43">
-        <v>277</v>
-      </c>
-      <c r="D43">
-        <v>28700</v>
+        <v>48</v>
+      </c>
+      <c r="C43" s="6">
+        <v>185</v>
+      </c>
+      <c r="D43" s="6">
+        <v>28050</v>
       </c>
       <c r="E43" s="4">
         <f>SUM(C$2:C43)/SUM(C$2:C$72)</f>
-        <v>0.96842558484428076</v>
+        <v>0.95886954025737936</v>
       </c>
       <c r="F43" s="4">
         <f>SUM(D$2:D43)/SUM(D$2:D$72)</f>
-        <v>0.95140859389266119</v>
+        <v>0.95760895185280637</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -1630,21 +1645,21 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C44">
-        <v>263</v>
-      </c>
-      <c r="D44">
-        <v>26856</v>
+        <v>35</v>
+      </c>
+      <c r="C44" s="6">
+        <v>539</v>
+      </c>
+      <c r="D44" s="6">
+        <v>26865</v>
       </c>
       <c r="E44" s="4">
         <f>SUM(C$2:C44)/SUM(C$2:C$72)</f>
-        <v>0.97157106635411183</v>
+        <v>0.96531598335167201</v>
       </c>
       <c r="F44" s="4">
         <f>SUM(D$2:D44)/SUM(D$2:D$72)</f>
-        <v>0.95575617785594302</v>
+        <v>0.9619579927812234</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -1652,21 +1667,21 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C45">
-        <v>213</v>
-      </c>
-      <c r="D45">
-        <v>16266</v>
+        <v>46</v>
+      </c>
+      <c r="C45" s="6">
+        <v>263</v>
+      </c>
+      <c r="D45" s="6">
+        <v>26856</v>
       </c>
       <c r="E45" s="4">
         <f>SUM(C$2:C45)/SUM(C$2:C$72)</f>
-        <v>0.97411854757690286</v>
+        <v>0.96846146486150309</v>
       </c>
       <c r="F45" s="4">
         <f>SUM(D$2:D45)/SUM(D$2:D$72)</f>
-        <v>0.95838939951020075</v>
+        <v>0.96630557674450535</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -1674,21 +1689,21 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C46">
-        <v>185</v>
-      </c>
-      <c r="D46">
-        <v>28050</v>
+        <v>49</v>
+      </c>
+      <c r="C46" s="6">
+        <v>180</v>
+      </c>
+      <c r="D46" s="6">
+        <v>24024</v>
       </c>
       <c r="E46" s="4">
         <f>SUM(C$2:C46)/SUM(C$2:C$72)</f>
-        <v>0.97633114863895132</v>
+        <v>0.97061426589484767</v>
       </c>
       <c r="F46" s="4">
         <f>SUM(D$2:D46)/SUM(D$2:D$72)</f>
-        <v>0.96293027418141219</v>
+        <v>0.97019470234526062</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -1696,21 +1711,21 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C47">
-        <v>180</v>
-      </c>
-      <c r="D47">
-        <v>24024</v>
+        <v>39</v>
+      </c>
+      <c r="C47" s="6">
+        <v>450</v>
+      </c>
+      <c r="D47" s="6">
+        <v>20915</v>
       </c>
       <c r="E47" s="4">
         <f>SUM(C$2:C47)/SUM(C$2:C$72)</f>
-        <v>0.97848394967229579</v>
+        <v>0.97599626847820886</v>
       </c>
       <c r="F47" s="4">
         <f>SUM(D$2:D47)/SUM(D$2:D$72)</f>
-        <v>0.96681939978216758</v>
+        <v>0.97358052743432977</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -1718,21 +1733,21 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C48">
-        <v>174</v>
-      </c>
-      <c r="D48">
-        <v>29977</v>
+        <v>53</v>
+      </c>
+      <c r="C48" s="6">
+        <v>139</v>
+      </c>
+      <c r="D48" s="6">
+        <v>19091</v>
       </c>
       <c r="E48" s="4">
         <f>SUM(C$2:C48)/SUM(C$2:C$72)</f>
-        <v>0.98056499067119551</v>
+        <v>0.97765870927618048</v>
       </c>
       <c r="F48" s="4">
         <f>SUM(D$2:D48)/SUM(D$2:D$72)</f>
-        <v>0.9716722268773158</v>
+        <v>0.97667107425600885</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -1740,21 +1755,21 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C49">
-        <v>168</v>
-      </c>
-      <c r="D49">
-        <v>13349</v>
+        <v>47</v>
+      </c>
+      <c r="C49" s="6">
+        <v>213</v>
+      </c>
+      <c r="D49" s="6">
+        <v>16266</v>
       </c>
       <c r="E49" s="4">
         <f>SUM(C$2:C49)/SUM(C$2:C$72)</f>
-        <v>0.98257427163565036</v>
+        <v>0.9802061904989714</v>
       </c>
       <c r="F49" s="4">
         <f>SUM(D$2:D49)/SUM(D$2:D$72)</f>
-        <v>0.97383322994277044</v>
+        <v>0.97930429591026646</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -1762,21 +1777,21 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C50">
-        <v>165</v>
-      </c>
-      <c r="D50">
-        <v>34100</v>
+        <v>58</v>
+      </c>
+      <c r="C50" s="6">
+        <v>88</v>
+      </c>
+      <c r="D50" s="6">
+        <v>14965</v>
       </c>
       <c r="E50" s="4">
         <f>SUM(C$2:C50)/SUM(C$2:C$72)</f>
-        <v>0.98454767258288289</v>
+        <v>0.98125867100416209</v>
       </c>
       <c r="F50" s="4">
         <f>SUM(D$2:D50)/SUM(D$2:D$72)</f>
-        <v>0.97935350895483153</v>
+        <v>0.98172690515998773</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -1784,21 +1799,21 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C51">
-        <v>139</v>
-      </c>
-      <c r="D51">
-        <v>19091</v>
+        <v>51</v>
+      </c>
+      <c r="C51" s="6">
+        <v>168</v>
+      </c>
+      <c r="D51" s="6">
+        <v>13349</v>
       </c>
       <c r="E51" s="4">
         <f>SUM(C$2:C51)/SUM(C$2:C$72)</f>
-        <v>0.9862101133808544</v>
+        <v>0.98326795196861694</v>
       </c>
       <c r="F51" s="4">
         <f>SUM(D$2:D51)/SUM(D$2:D$72)</f>
-        <v>0.98244405577651062</v>
+        <v>0.98388790822544236</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -1806,21 +1821,21 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C52">
-        <v>132</v>
-      </c>
-      <c r="D52">
-        <v>10650</v>
+        <v>60</v>
+      </c>
+      <c r="C52" s="6">
+        <v>75</v>
+      </c>
+      <c r="D52" s="6">
+        <v>10911</v>
       </c>
       <c r="E52" s="4">
         <f>SUM(C$2:C52)/SUM(C$2:C$72)</f>
-        <v>0.98778883413864038</v>
+        <v>0.98416495239917712</v>
       </c>
       <c r="F52" s="4">
         <f>SUM(D$2:D52)/SUM(D$2:D$72)</f>
-        <v>0.98416813118643587</v>
+        <v>0.98565423562428689</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -1828,21 +1843,21 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C53">
-        <v>126</v>
-      </c>
-      <c r="D53">
-        <v>2395</v>
+        <v>54</v>
+      </c>
+      <c r="C53" s="6">
+        <v>132</v>
+      </c>
+      <c r="D53" s="6">
+        <v>10650</v>
       </c>
       <c r="E53" s="4">
         <f>SUM(C$2:C53)/SUM(C$2:C$72)</f>
-        <v>0.98929579486198149</v>
+        <v>0.9857436731569631</v>
       </c>
       <c r="F53" s="4">
         <f>SUM(D$2:D53)/SUM(D$2:D$72)</f>
-        <v>0.9845558457974003</v>
+        <v>0.98737831103421214</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -1850,21 +1865,21 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C54">
-        <v>115</v>
-      </c>
-      <c r="D54">
-        <v>6672</v>
+        <v>57</v>
+      </c>
+      <c r="C54" s="6">
+        <v>90</v>
+      </c>
+      <c r="D54" s="6">
+        <v>9756</v>
       </c>
       <c r="E54" s="4">
         <f>SUM(C$2:C54)/SUM(C$2:C$72)</f>
-        <v>0.99067119552217386</v>
+        <v>0.98682007367363533</v>
       </c>
       <c r="F54" s="4">
         <f>SUM(D$2:D54)/SUM(D$2:D$72)</f>
-        <v>0.98563594261759002</v>
+        <v>0.9889576612407126</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -1872,21 +1887,21 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C55">
-        <v>90</v>
-      </c>
-      <c r="D55">
-        <v>9756</v>
+        <v>59</v>
+      </c>
+      <c r="C55" s="6">
+        <v>84</v>
+      </c>
+      <c r="D55" s="6">
+        <v>8816</v>
       </c>
       <c r="E55" s="4">
         <f>SUM(C$2:C55)/SUM(C$2:C$72)</f>
-        <v>0.9917475960388461</v>
+        <v>0.98782471415586282</v>
       </c>
       <c r="F55" s="4">
         <f>SUM(D$2:D55)/SUM(D$2:D$72)</f>
-        <v>0.9872152928240906</v>
+        <v>0.99038483953309775</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -1894,21 +1909,21 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C56">
-        <v>88</v>
-      </c>
-      <c r="D56">
-        <v>14965</v>
+        <v>56</v>
+      </c>
+      <c r="C56" s="6">
+        <v>115</v>
+      </c>
+      <c r="D56" s="6">
+        <v>6672</v>
       </c>
       <c r="E56" s="4">
         <f>SUM(C$2:C56)/SUM(C$2:C$72)</f>
-        <v>0.99280007654403679</v>
+        <v>0.98920011481605508</v>
       </c>
       <c r="F56" s="4">
         <f>SUM(D$2:D56)/SUM(D$2:D$72)</f>
-        <v>0.98963790207381175</v>
+        <v>0.99146493635328747</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -1916,21 +1931,21 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C57">
-        <v>84</v>
-      </c>
-      <c r="D57">
-        <v>8816</v>
+        <v>67</v>
+      </c>
+      <c r="C57" s="6">
+        <v>42</v>
+      </c>
+      <c r="D57" s="6">
+        <v>6563</v>
       </c>
       <c r="E57" s="4">
         <f>SUM(C$2:C57)/SUM(C$2:C$72)</f>
-        <v>0.99380471702626416</v>
+        <v>0.98970243505716882</v>
       </c>
       <c r="F57" s="4">
         <f>SUM(D$2:D57)/SUM(D$2:D$72)</f>
-        <v>0.99106508036619689</v>
+        <v>0.99252738770684046</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -1938,21 +1953,21 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C58">
-        <v>75</v>
-      </c>
-      <c r="D58">
-        <v>10911</v>
+        <v>44</v>
+      </c>
+      <c r="C58" s="6">
+        <v>334</v>
+      </c>
+      <c r="D58" s="6">
+        <v>6046</v>
       </c>
       <c r="E58" s="4">
         <f>SUM(C$2:C58)/SUM(C$2:C$72)</f>
-        <v>0.99470171745682434</v>
+        <v>0.99369707697459697</v>
       </c>
       <c r="F58" s="4">
         <f>SUM(D$2:D58)/SUM(D$2:D$72)</f>
-        <v>0.99283140776504142</v>
+        <v>0.99350614450762997</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -1960,21 +1975,21 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C59">
-        <v>74</v>
-      </c>
-      <c r="D59">
-        <v>4623</v>
+        <v>63</v>
+      </c>
+      <c r="C59" s="6">
+        <v>55</v>
+      </c>
+      <c r="D59" s="6">
+        <v>5869</v>
       </c>
       <c r="E59" s="4">
         <f>SUM(C$2:C59)/SUM(C$2:C$72)</f>
-        <v>0.99558675788164375</v>
+        <v>0.99435487729034111</v>
       </c>
       <c r="F59" s="4">
         <f>SUM(D$2:D59)/SUM(D$2:D$72)</f>
-        <v>0.9935798021894624</v>
+        <v>0.99445624766076157</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -1982,21 +1997,21 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C60">
-        <v>67</v>
-      </c>
-      <c r="D60">
-        <v>5189</v>
+        <v>65</v>
+      </c>
+      <c r="C60" s="6">
+        <v>44</v>
+      </c>
+      <c r="D60" s="6">
+        <v>5466</v>
       </c>
       <c r="E60" s="4">
         <f>SUM(C$2:C60)/SUM(C$2:C$72)</f>
-        <v>0.99638807826627762</v>
+        <v>0.9948811175429364</v>
       </c>
       <c r="F60" s="4">
         <f>SUM(D$2:D60)/SUM(D$2:D$72)</f>
-        <v>0.99441982353238279</v>
+        <v>0.99534111115284152</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
@@ -2004,21 +2019,21 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C61">
-        <v>55</v>
-      </c>
-      <c r="D61">
-        <v>5869</v>
+        <v>66</v>
+      </c>
+      <c r="C61" s="6">
+        <v>44</v>
+      </c>
+      <c r="D61" s="6">
+        <v>5332</v>
       </c>
       <c r="E61" s="4">
         <f>SUM(C$2:C61)/SUM(C$2:C$72)</f>
-        <v>0.99704587858202176</v>
+        <v>0.99540735779553169</v>
       </c>
       <c r="F61" s="4">
         <f>SUM(D$2:D61)/SUM(D$2:D$72)</f>
-        <v>0.99536992668551438</v>
+        <v>0.99620428205290923</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
@@ -2026,21 +2041,21 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C62">
-        <v>50</v>
-      </c>
-      <c r="D62">
-        <v>5130</v>
+        <v>62</v>
+      </c>
+      <c r="C62" s="6">
+        <v>67</v>
+      </c>
+      <c r="D62" s="6">
+        <v>5189</v>
       </c>
       <c r="E62" s="4">
         <f>SUM(C$2:C62)/SUM(C$2:C$72)</f>
-        <v>0.99764387886906181</v>
+        <v>0.99620867818016556</v>
       </c>
       <c r="F62" s="4">
         <f>SUM(D$2:D62)/SUM(D$2:D$72)</f>
-        <v>0.99620039681254879</v>
+        <v>0.99704430339582961</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
@@ -2048,21 +2063,21 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C63">
-        <v>44</v>
-      </c>
-      <c r="D63">
-        <v>5466</v>
+        <v>64</v>
+      </c>
+      <c r="C63" s="6">
+        <v>50</v>
+      </c>
+      <c r="D63" s="6">
+        <v>5130</v>
       </c>
       <c r="E63" s="4">
         <f>SUM(C$2:C63)/SUM(C$2:C$72)</f>
-        <v>0.99817011912165721</v>
+        <v>0.99680667846720561</v>
       </c>
       <c r="F63" s="4">
         <f>SUM(D$2:D63)/SUM(D$2:D$72)</f>
-        <v>0.99708526030462874</v>
+        <v>0.99787477352286402</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
@@ -2070,21 +2085,21 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C64">
-        <v>44</v>
-      </c>
-      <c r="D64">
-        <v>5332</v>
+        <v>61</v>
+      </c>
+      <c r="C64" s="6">
+        <v>74</v>
+      </c>
+      <c r="D64" s="6">
+        <v>4623</v>
       </c>
       <c r="E64" s="4">
         <f>SUM(C$2:C64)/SUM(C$2:C$72)</f>
-        <v>0.9986963593742525</v>
+        <v>0.99769171889202501</v>
       </c>
       <c r="F64" s="4">
         <f>SUM(D$2:D64)/SUM(D$2:D$72)</f>
-        <v>0.99794843120469645</v>
+        <v>0.99862316794728501</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
@@ -2092,21 +2107,21 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C65">
-        <v>42</v>
-      </c>
-      <c r="D65">
-        <v>6563</v>
+        <v>68</v>
+      </c>
+      <c r="C65" s="6">
+        <v>22</v>
+      </c>
+      <c r="D65" s="6">
+        <v>2885</v>
       </c>
       <c r="E65" s="4">
         <f>SUM(C$2:C65)/SUM(C$2:C$72)</f>
-        <v>0.99919867961536624</v>
+        <v>0.99795483901832271</v>
       </c>
       <c r="F65" s="4">
         <f>SUM(D$2:D65)/SUM(D$2:D$72)</f>
-        <v>0.99901088255824944</v>
+        <v>0.99909020621560751</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
@@ -2114,13 +2129,13 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C66">
-        <v>22</v>
-      </c>
-      <c r="D66">
-        <v>2885</v>
+        <v>55</v>
+      </c>
+      <c r="C66" s="6">
+        <v>126</v>
+      </c>
+      <c r="D66" s="6">
+        <v>2395</v>
       </c>
       <c r="E66" s="4">
         <f>SUM(C$2:C66)/SUM(C$2:C$72)</f>
@@ -2136,21 +2151,21 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C67">
-        <v>19</v>
-      </c>
-      <c r="D67">
-        <v>735</v>
+        <v>70</v>
+      </c>
+      <c r="C67" s="6">
+        <v>11</v>
+      </c>
+      <c r="D67" s="6">
+        <v>1483</v>
       </c>
       <c r="E67" s="4">
         <f>SUM(C$2:C67)/SUM(C$2:C$72)</f>
-        <v>0.99968903985073909</v>
+        <v>0.99959335980481268</v>
       </c>
       <c r="F67" s="4">
         <f>SUM(D$2:D67)/SUM(D$2:D$72)</f>
-        <v>0.999596906312609</v>
+        <v>0.99971799630384128</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
@@ -2158,13 +2173,13 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C68">
-        <v>11</v>
-      </c>
-      <c r="D68">
-        <v>1483</v>
+        <v>69</v>
+      </c>
+      <c r="C68" s="6">
+        <v>19</v>
+      </c>
+      <c r="D68" s="6">
+        <v>735</v>
       </c>
       <c r="E68" s="4">
         <f>SUM(C$2:C68)/SUM(C$2:C$72)</f>
@@ -2182,10 +2197,10 @@
       <c r="B69" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="6">
         <v>7</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="6">
         <v>560</v>
       </c>
       <c r="E69" s="4">
@@ -2204,10 +2219,10 @@
       <c r="B70" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="6">
         <v>4</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="6">
         <v>302</v>
       </c>
       <c r="E70" s="4">
@@ -2226,10 +2241,10 @@
       <c r="B71" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="6">
         <v>3</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="6">
         <v>127</v>
       </c>
       <c r="E71" s="4">
@@ -2248,10 +2263,10 @@
       <c r="B72" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="6">
         <v>1</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="6">
         <v>18</v>
       </c>
       <c r="E72" s="4">

--- a/results/MD/md_areas.xlsx
+++ b/results/MD/md_areas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/pg/results/MD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F621E070-A9C3-2C43-92F6-961B3BC5D26C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98EB4466-4DD6-2F42-81DD-631543409265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11580" yWindow="5400" windowWidth="28040" windowHeight="17440" xr2:uid="{E98EC71D-BC74-9C4A-9693-7FC8104C88CD}"/>
   </bookViews>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t>AREA</t>
   </si>
@@ -284,7 +284,10 @@
     <t>% BLOCKS</t>
   </si>
   <si>
-    <t>% POPULATION</t>
+    <t>% POP</t>
+  </si>
+  <si>
+    <t>% DISTRICT</t>
   </si>
 </sst>
 </file>
@@ -318,12 +321,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -348,7 +357,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -360,6 +369,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -679,13 +691,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F6DF82A-D95C-704E-8B70-7477278A2CFE}">
-  <dimension ref="A1:F72"/>
+  <dimension ref="A1:H72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F23" sqref="A23:F23"/>
+      <selection pane="bottomRight" activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -694,9 +706,10 @@
     <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.6640625" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.83203125" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -709,14 +722,18 @@
       <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="11"/>
+      <c r="F1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -729,16 +746,20 @@
       <c r="D2" s="6">
         <v>523334</v>
       </c>
-      <c r="E2" s="4">
+      <c r="F2" s="4">
         <f>SUM(C$2:C2)/SUM(C$2:C$72)</f>
         <v>0.14462038941778693</v>
       </c>
-      <c r="F2" s="4">
+      <c r="G2" s="4">
         <f>SUM(D$2:D2)/SUM(D$2:D$72)</f>
         <v>8.471993244862093E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H2" s="4">
+        <f>D2/771923</f>
+        <v>0.67796140288603912</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -751,16 +772,20 @@
       <c r="D3" s="6">
         <v>472338</v>
       </c>
-      <c r="E3" s="4">
+      <c r="F3" s="4">
         <f>SUM(C$2:C3)/SUM(C$2:C$72)</f>
         <v>0.23783667416160359</v>
       </c>
-      <c r="F3" s="4">
+      <c r="G3" s="4">
         <f>SUM(D$2:D3)/SUM(D$2:D$72)</f>
         <v>0.16118437667146279</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H3" s="4">
+        <f t="shared" ref="H3:H66" si="0">D3/771923</f>
+        <v>0.61189781882389827</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -773,16 +798,20 @@
       <c r="D4" s="6">
         <v>454810</v>
       </c>
-      <c r="E4" s="4">
+      <c r="F4" s="4">
         <f>SUM(C$2:C4)/SUM(C$2:C$72)</f>
         <v>0.29147729990910398</v>
       </c>
-      <c r="F4" s="4">
+      <c r="G4" s="4">
         <f>SUM(D$2:D4)/SUM(D$2:D$72)</f>
         <v>0.23481130035109621</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H4" s="4">
+        <f t="shared" si="0"/>
+        <v>0.58919089080128462</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -795,16 +824,20 @@
       <c r="D5" s="6">
         <v>409274</v>
       </c>
-      <c r="E5" s="4">
+      <c r="F5" s="4">
         <f>SUM(C$2:C5)/SUM(C$2:C$72)</f>
         <v>0.3428814045830742</v>
       </c>
-      <c r="F5" s="4">
+      <c r="G5" s="4">
         <f>SUM(D$2:D5)/SUM(D$2:D$72)</f>
         <v>0.30106662798694039</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H5" s="4">
+        <f t="shared" si="0"/>
+        <v>0.53020055109123576</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -817,16 +850,20 @@
       <c r="D6" s="6">
         <v>369188</v>
       </c>
-      <c r="E6" s="4">
+      <c r="F6" s="4">
         <f>SUM(C$2:C6)/SUM(C$2:C$72)</f>
         <v>0.38658326555996747</v>
       </c>
-      <c r="F6" s="4">
+      <c r="G6" s="4">
         <f>SUM(D$2:D6)/SUM(D$2:D$72)</f>
         <v>0.36083263291083501</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H6" s="4">
+        <f t="shared" si="0"/>
+        <v>0.47827050107329355</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -839,16 +876,20 @@
       <c r="D7" s="6">
         <v>282303</v>
       </c>
-      <c r="E7" s="4">
+      <c r="F7" s="4">
         <f>SUM(C$2:C7)/SUM(C$2:C$72)</f>
         <v>0.43307180787446781</v>
       </c>
-      <c r="F7" s="4">
+      <c r="G7" s="4">
         <f>SUM(D$2:D7)/SUM(D$2:D$72)</f>
         <v>0.40653325830502501</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H7" s="4">
+        <f t="shared" si="0"/>
+        <v>0.3657139377891318</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -861,16 +902,20 @@
       <c r="D8" s="6">
         <v>281766</v>
       </c>
-      <c r="E8" s="4">
+      <c r="F8" s="4">
         <f>SUM(C$2:C8)/SUM(C$2:C$72)</f>
         <v>0.45889346026886091</v>
       </c>
-      <c r="F8" s="4">
+      <c r="G8" s="4">
         <f>SUM(D$2:D8)/SUM(D$2:D$72)</f>
         <v>0.45214695144615119</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H8" s="4">
+        <f t="shared" si="0"/>
+        <v>0.36501827254790958</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -883,16 +928,21 @@
       <c r="D9" s="9">
         <v>252839</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="13"/>
+      <c r="F9" s="10">
         <f>SUM(C$2:C9)/SUM(C$2:C$72)</f>
         <v>0.48338755202602496</v>
       </c>
-      <c r="F9" s="10">
+      <c r="G9" s="10">
         <f>SUM(D$2:D9)/SUM(D$2:D$72)</f>
         <v>0.49307779675789642</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H9" s="10">
+        <f t="shared" si="0"/>
+        <v>0.32754432760780544</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -905,16 +955,20 @@
       <c r="D10" s="6">
         <v>226056</v>
       </c>
-      <c r="E10" s="4">
+      <c r="F10" s="4">
         <f>SUM(C$2:C10)/SUM(C$2:C$72)</f>
         <v>0.50557336267521413</v>
       </c>
-      <c r="F10" s="4">
+      <c r="G10" s="4">
         <f>SUM(D$2:D10)/SUM(D$2:D$72)</f>
         <v>0.52967287571245592</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H10" s="4">
+        <f t="shared" si="0"/>
+        <v>0.29284786176859612</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -927,16 +981,20 @@
       <c r="D11" s="6">
         <v>204894</v>
       </c>
-      <c r="E11" s="4">
+      <c r="F11" s="4">
         <f>SUM(C$2:C11)/SUM(C$2:C$72)</f>
         <v>0.51982968951825093</v>
       </c>
-      <c r="F11" s="4">
+      <c r="G11" s="4">
         <f>SUM(D$2:D11)/SUM(D$2:D$72)</f>
         <v>0.56284214397923726</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H11" s="4">
+        <f t="shared" si="0"/>
+        <v>0.26543321030724565</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -949,16 +1007,20 @@
       <c r="D12" s="6">
         <v>180688</v>
       </c>
-      <c r="E12" s="4">
+      <c r="F12" s="4">
         <f>SUM(C$2:C12)/SUM(C$2:C$72)</f>
         <v>0.59979428790125822</v>
       </c>
-      <c r="F12" s="4">
+      <c r="G12" s="4">
         <f>SUM(D$2:D12)/SUM(D$2:D$72)</f>
         <v>0.59209282357253035</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H12" s="4">
+        <f t="shared" si="0"/>
+        <v>0.23407516034630396</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -971,16 +1033,20 @@
       <c r="D13" s="6">
         <v>172891</v>
       </c>
-      <c r="E13" s="4">
+      <c r="F13" s="4">
         <f>SUM(C$2:C13)/SUM(C$2:C$72)</f>
         <v>0.6304597426206765</v>
       </c>
-      <c r="F13" s="4">
+      <c r="G13" s="4">
         <f>SUM(D$2:D13)/SUM(D$2:D$72)</f>
         <v>0.6200812857037401</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H13" s="4">
+        <f t="shared" si="0"/>
+        <v>0.22397441195559661</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -993,16 +1059,20 @@
       <c r="D14" s="6">
         <v>164314</v>
       </c>
-      <c r="E14" s="4">
+      <c r="F14" s="4">
         <f>SUM(C$2:C14)/SUM(C$2:C$72)</f>
         <v>0.65649667511840404</v>
       </c>
-      <c r="F14" s="4">
+      <c r="G14" s="4">
         <f>SUM(D$2:D14)/SUM(D$2:D$72)</f>
         <v>0.64668126006115367</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H14" s="4">
+        <f t="shared" si="0"/>
+        <v>0.21286320008601894</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1015,16 +1085,20 @@
       <c r="D15" s="6">
         <v>125608</v>
       </c>
-      <c r="E15" s="4">
+      <c r="F15" s="4">
         <f>SUM(C$2:C15)/SUM(C$2:C$72)</f>
         <v>0.67631440463091419</v>
       </c>
-      <c r="F15" s="4">
+      <c r="G15" s="4">
         <f>SUM(D$2:D15)/SUM(D$2:D$72)</f>
         <v>0.66701531302734041</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H15" s="4">
+        <f t="shared" si="0"/>
+        <v>0.16272089314607804</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1037,16 +1111,20 @@
       <c r="D16" s="6">
         <v>125270</v>
       </c>
-      <c r="E16" s="4">
+      <c r="F16" s="4">
         <f>SUM(C$2:C16)/SUM(C$2:C$72)</f>
         <v>0.69035545137061671</v>
       </c>
-      <c r="F16" s="4">
+      <c r="G16" s="4">
         <f>SUM(D$2:D16)/SUM(D$2:D$72)</f>
         <v>0.6872946488584516</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H16" s="4">
+        <f t="shared" si="0"/>
+        <v>0.16228302563856759</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1059,16 +1137,20 @@
       <c r="D17" s="6">
         <v>118051</v>
       </c>
-      <c r="E17" s="4">
+      <c r="F17" s="4">
         <f>SUM(C$2:C17)/SUM(C$2:C$72)</f>
         <v>0.70471941826532081</v>
       </c>
-      <c r="F17" s="4">
+      <c r="G17" s="4">
         <f>SUM(D$2:D17)/SUM(D$2:D$72)</f>
         <v>0.70640533676615902</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H17" s="4">
+        <f t="shared" si="0"/>
+        <v>0.15293105659502307</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1081,16 +1163,20 @@
       <c r="D18" s="6">
         <v>113370</v>
       </c>
-      <c r="E18" s="4">
+      <c r="F18" s="4">
         <f>SUM(C$2:C18)/SUM(C$2:C$72)</f>
         <v>0.73123475099268043</v>
       </c>
-      <c r="F18" s="4">
+      <c r="G18" s="4">
         <f>SUM(D$2:D18)/SUM(D$2:D$72)</f>
         <v>0.72475824091857444</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H18" s="4">
+        <f t="shared" si="0"/>
+        <v>0.14686698025580272</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1103,16 +1189,20 @@
       <c r="D19" s="6">
         <v>103725</v>
       </c>
-      <c r="E19" s="4">
+      <c r="F19" s="4">
         <f>SUM(C$2:C19)/SUM(C$2:C$72)</f>
         <v>0.75521456250299002</v>
       </c>
-      <c r="F19" s="4">
+      <c r="G19" s="4">
         <f>SUM(D$2:D19)/SUM(D$2:D$72)</f>
         <v>0.74154976410115614</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H19" s="4">
+        <f t="shared" si="0"/>
+        <v>0.13437221069977187</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1125,16 +1215,20 @@
       <c r="D20" s="6">
         <v>97954</v>
       </c>
-      <c r="E20" s="4">
+      <c r="F20" s="4">
         <f>SUM(C$2:C20)/SUM(C$2:C$72)</f>
         <v>0.76677988805434627</v>
       </c>
-      <c r="F20" s="4">
+      <c r="G20" s="4">
         <f>SUM(D$2:D20)/SUM(D$2:D$72)</f>
         <v>0.75740704886207788</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H20" s="4">
+        <f t="shared" si="0"/>
+        <v>0.12689607642213019</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1147,16 +1241,20 @@
       <c r="D21" s="6">
         <v>96610</v>
       </c>
-      <c r="E21" s="4">
+      <c r="F21" s="4">
         <f>SUM(C$2:C21)/SUM(C$2:C$72)</f>
         <v>0.77726881308903029</v>
       </c>
-      <c r="F21" s="4">
+      <c r="G21" s="4">
         <f>SUM(D$2:D21)/SUM(D$2:D$72)</f>
         <v>0.77304676016281748</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H21" s="4">
+        <f t="shared" si="0"/>
+        <v>0.12515497012007673</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1169,16 +1267,20 @@
       <c r="D22" s="6">
         <v>92783</v>
       </c>
-      <c r="E22" s="4">
+      <c r="F22" s="4">
         <f>SUM(C$2:C22)/SUM(C$2:C$72)</f>
         <v>0.79138161986317757</v>
       </c>
-      <c r="F22" s="4">
+      <c r="G22" s="4">
         <f>SUM(D$2:D22)/SUM(D$2:D$72)</f>
         <v>0.78806693751108914</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H22" s="4">
+        <f t="shared" si="0"/>
+        <v>0.12019722174361951</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
         <v>22</v>
       </c>
@@ -1191,16 +1293,21 @@
       <c r="D23" s="9">
         <v>92448</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E23" s="13"/>
+      <c r="F23" s="10">
         <f>SUM(C$2:C23)/SUM(C$2:C$72)</f>
         <v>0.79895230349710566</v>
       </c>
-      <c r="F23" s="10">
+      <c r="G23" s="10">
         <f>SUM(D$2:D23)/SUM(D$2:D$72)</f>
         <v>0.80303288337933021</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H23" s="10">
+        <f t="shared" si="0"/>
+        <v>0.11976324063410469</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1213,16 +1320,20 @@
       <c r="D24" s="6">
         <v>91426</v>
       </c>
-      <c r="E24" s="4">
+      <c r="F24" s="4">
         <f>SUM(C$2:C24)/SUM(C$2:C$72)</f>
         <v>0.80794622781418934</v>
       </c>
-      <c r="F24" s="4">
+      <c r="G24" s="4">
         <f>SUM(D$2:D24)/SUM(D$2:D$72)</f>
         <v>0.81783338276222461</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H24" s="4">
+        <f t="shared" si="0"/>
+        <v>0.1184392743835849</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1235,16 +1346,20 @@
       <c r="D25" s="6">
         <v>71931</v>
       </c>
-      <c r="E25" s="4">
+      <c r="F25" s="4">
         <f>SUM(C$2:C25)/SUM(C$2:C$72)</f>
         <v>0.8142371908338516</v>
       </c>
-      <c r="F25" s="4">
+      <c r="G25" s="4">
         <f>SUM(D$2:D25)/SUM(D$2:D$72)</f>
         <v>0.82947793377737311</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H25" s="4">
+        <f t="shared" si="0"/>
+        <v>9.3184164741820105E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1257,16 +1372,20 @@
       <c r="D26" s="6">
         <v>70037</v>
       </c>
-      <c r="E26" s="4">
+      <c r="F26" s="4">
         <f>SUM(C$2:C26)/SUM(C$2:C$72)</f>
         <v>0.84999760799885182</v>
       </c>
-      <c r="F26" s="4">
+      <c r="G26" s="4">
         <f>SUM(D$2:D26)/SUM(D$2:D$72)</f>
         <v>0.84081587457408058</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H26" s="4">
+        <f t="shared" si="0"/>
+        <v>9.0730552140563248E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1279,16 +1398,20 @@
       <c r="D27" s="6">
         <v>66602</v>
       </c>
-      <c r="E27" s="4">
+      <c r="F27" s="4">
         <f>SUM(C$2:C27)/SUM(C$2:C$72)</f>
         <v>0.85589389082906764</v>
       </c>
-      <c r="F27" s="4">
+      <c r="G27" s="4">
         <f>SUM(D$2:D27)/SUM(D$2:D$72)</f>
         <v>0.85159774034420643</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H27" s="4">
+        <f t="shared" si="0"/>
+        <v>8.6280626435538257E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1301,16 +1424,20 @@
       <c r="D28" s="6">
         <v>58601</v>
       </c>
-      <c r="E28" s="4">
+      <c r="F28" s="4">
         <f>SUM(C$2:C28)/SUM(C$2:C$72)</f>
         <v>0.86376357460651576</v>
       </c>
-      <c r="F28" s="4">
+      <c r="G28" s="4">
         <f>SUM(D$2:D28)/SUM(D$2:D$72)</f>
         <v>0.86108436410918565</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H28" s="4">
+        <f t="shared" si="0"/>
+        <v>7.5915602981126359E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1323,16 +1450,20 @@
       <c r="D29" s="6">
         <v>56995</v>
       </c>
-      <c r="E29" s="4">
+      <c r="F29" s="4">
         <f>SUM(C$2:C29)/SUM(C$2:C$72)</f>
         <v>0.87138209826340718</v>
       </c>
-      <c r="F29" s="4">
+      <c r="G29" s="4">
         <f>SUM(D$2:D29)/SUM(D$2:D$72)</f>
         <v>0.8703110005400484</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H29" s="4">
+        <f t="shared" si="0"/>
+        <v>7.3835084587452374E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1345,16 +1476,20 @@
       <c r="D30" s="6">
         <v>53534</v>
       </c>
-      <c r="E30" s="4">
+      <c r="F30" s="4">
         <f>SUM(C$2:C30)/SUM(C$2:C$72)</f>
         <v>0.88252882361383533</v>
       </c>
-      <c r="F30" s="4">
+      <c r="G30" s="4">
         <f>SUM(D$2:D30)/SUM(D$2:D$72)</f>
         <v>0.8789773529339393</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H30" s="4">
+        <f t="shared" si="0"/>
+        <v>6.9351476766465053E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1367,16 +1502,20 @@
       <c r="D31" s="6">
         <v>49623</v>
       </c>
-      <c r="E31" s="4">
+      <c r="F31" s="4">
         <f>SUM(C$2:C31)/SUM(C$2:C$72)</f>
         <v>0.88768358608812137</v>
       </c>
-      <c r="F31" s="4">
+      <c r="G31" s="4">
         <f>SUM(D$2:D31)/SUM(D$2:D$72)</f>
         <v>0.8870105730341008</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H31" s="4">
+        <f t="shared" si="0"/>
+        <v>6.4284909246129465E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1389,16 +1528,20 @@
       <c r="D32" s="6">
         <v>48838</v>
       </c>
-      <c r="E32" s="4">
+      <c r="F32" s="4">
         <f>SUM(C$2:C32)/SUM(C$2:C$72)</f>
         <v>0.89224034827536713</v>
       </c>
-      <c r="F32" s="4">
+      <c r="G32" s="4">
         <f>SUM(D$2:D32)/SUM(D$2:D$72)</f>
         <v>0.89491671339747436</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H32" s="4">
+        <f t="shared" si="0"/>
+        <v>6.3267968437266411E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1411,16 +1554,20 @@
       <c r="D33" s="6">
         <v>47591</v>
       </c>
-      <c r="E33" s="4">
+      <c r="F33" s="4">
         <f>SUM(C$2:C33)/SUM(C$2:C$72)</f>
         <v>0.89694063053150264</v>
       </c>
-      <c r="F33" s="4">
+      <c r="G33" s="4">
         <f>SUM(D$2:D33)/SUM(D$2:D$72)</f>
         <v>0.90262098314712236</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H33" s="4">
+        <f t="shared" si="0"/>
+        <v>6.1652522337072482E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1433,16 +1580,20 @@
       <c r="D34" s="6">
         <v>44644</v>
       </c>
-      <c r="E34" s="4">
+      <c r="F34" s="4">
         <f>SUM(C$2:C34)/SUM(C$2:C$72)</f>
         <v>0.90582691479691912</v>
       </c>
-      <c r="F34" s="4">
+      <c r="G34" s="4">
         <f>SUM(D$2:D34)/SUM(D$2:D$72)</f>
         <v>0.90984817775751692</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H34" s="4">
+        <f t="shared" si="0"/>
+        <v>5.7834784039340711E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1455,16 +1606,20 @@
       <c r="D35" s="6">
         <v>38129</v>
       </c>
-      <c r="E35" s="4">
+      <c r="F35" s="4">
         <f>SUM(C$2:C35)/SUM(C$2:C$72)</f>
         <v>0.91173515763287571</v>
       </c>
-      <c r="F35" s="4">
+      <c r="G35" s="4">
         <f>SUM(D$2:D35)/SUM(D$2:D$72)</f>
         <v>0.91602069149507936</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H35" s="4">
+        <f t="shared" si="0"/>
+        <v>4.9394823058776585E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1477,16 +1632,20 @@
       <c r="D36" s="6">
         <v>36616</v>
       </c>
-      <c r="E36" s="4">
+      <c r="F36" s="4">
         <f>SUM(C$2:C36)/SUM(C$2:C$72)</f>
         <v>0.91599291967660146</v>
       </c>
-      <c r="F36" s="4">
+      <c r="G36" s="4">
         <f>SUM(D$2:D36)/SUM(D$2:D$72)</f>
         <v>0.92194827320492179</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H36" s="4">
+        <f t="shared" si="0"/>
+        <v>4.7434783002967912E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1499,16 +1658,20 @@
       <c r="D37" s="6">
         <v>34100</v>
       </c>
-      <c r="E37" s="4">
+      <c r="F37" s="4">
         <f>SUM(C$2:C37)/SUM(C$2:C$72)</f>
         <v>0.91796632062383388</v>
       </c>
-      <c r="F37" s="4">
+      <c r="G37" s="4">
         <f>SUM(D$2:D37)/SUM(D$2:D$72)</f>
         <v>0.92746855221698288</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H37" s="4">
+        <f t="shared" si="0"/>
+        <v>4.4175390550611912E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1521,16 +1684,20 @@
       <c r="D38" s="6">
         <v>33766</v>
       </c>
-      <c r="E38" s="4">
+      <c r="F38" s="4">
         <f>SUM(C$2:C38)/SUM(C$2:C$72)</f>
         <v>0.92943596612926371</v>
       </c>
-      <c r="F38" s="4">
+      <c r="G38" s="4">
         <f>SUM(D$2:D38)/SUM(D$2:D$72)</f>
         <v>0.93293476163402844</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H38" s="4">
+        <f t="shared" si="0"/>
+        <v>4.3742704907095656E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1543,16 +1710,20 @@
       <c r="D39" s="6">
         <v>33293</v>
       </c>
-      <c r="E39" s="4">
+      <c r="F39" s="4">
         <f>SUM(C$2:C39)/SUM(C$2:C$72)</f>
         <v>0.94455341338563847</v>
       </c>
-      <c r="F39" s="4">
+      <c r="G39" s="4">
         <f>SUM(D$2:D39)/SUM(D$2:D$72)</f>
         <v>0.93832439943897128</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H39" s="4">
+        <f t="shared" si="0"/>
+        <v>4.3129949489780717E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1565,16 +1736,20 @@
       <c r="D40" s="6">
         <v>32398</v>
       </c>
-      <c r="E40" s="4">
+      <c r="F40" s="4">
         <f>SUM(C$2:C40)/SUM(C$2:C$72)</f>
         <v>0.95126297660622872</v>
       </c>
-      <c r="F40" s="4">
+      <c r="G40" s="4">
         <f>SUM(D$2:D40)/SUM(D$2:D$72)</f>
         <v>0.94356915015547438</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H40" s="4">
+        <f t="shared" si="0"/>
+        <v>4.1970507421076976E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1587,16 +1762,20 @@
       <c r="D41" s="6">
         <v>29977</v>
       </c>
-      <c r="E41" s="4">
+      <c r="F41" s="4">
         <f>SUM(C$2:C41)/SUM(C$2:C$72)</f>
         <v>0.95334401760512844</v>
       </c>
-      <c r="F41" s="4">
+      <c r="G41" s="4">
         <f>SUM(D$2:D41)/SUM(D$2:D$72)</f>
         <v>0.94842197725062261</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H41" s="4">
+        <f t="shared" si="0"/>
+        <v>3.8834184238583383E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1609,16 +1788,20 @@
       <c r="D42" s="6">
         <v>28700</v>
       </c>
-      <c r="E42" s="4">
+      <c r="F42" s="4">
         <f>SUM(C$2:C42)/SUM(C$2:C$72)</f>
         <v>0.95665693919533079</v>
       </c>
-      <c r="F42" s="4">
+      <c r="G42" s="4">
         <f>SUM(D$2:D42)/SUM(D$2:D$72)</f>
         <v>0.95306807718159481</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H42" s="4">
+        <f t="shared" si="0"/>
+        <v>3.71798741584329E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1631,16 +1814,20 @@
       <c r="D43" s="6">
         <v>28050</v>
       </c>
-      <c r="E43" s="4">
+      <c r="F43" s="4">
         <f>SUM(C$2:C43)/SUM(C$2:C$72)</f>
         <v>0.95886954025737936</v>
       </c>
-      <c r="F43" s="4">
+      <c r="G43" s="4">
         <f>SUM(D$2:D43)/SUM(D$2:D$72)</f>
         <v>0.95760895185280637</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H43" s="4">
+        <f t="shared" si="0"/>
+        <v>3.6337821259374313E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1653,16 +1840,20 @@
       <c r="D44" s="6">
         <v>26865</v>
       </c>
-      <c r="E44" s="4">
+      <c r="F44" s="4">
         <f>SUM(C$2:C44)/SUM(C$2:C$72)</f>
         <v>0.96531598335167201</v>
       </c>
-      <c r="F44" s="4">
+      <c r="G44" s="4">
         <f>SUM(D$2:D44)/SUM(D$2:D$72)</f>
         <v>0.9619579927812234</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H44" s="4">
+        <f t="shared" si="0"/>
+        <v>3.4802694051090585E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1675,16 +1866,20 @@
       <c r="D45" s="6">
         <v>26856</v>
       </c>
-      <c r="E45" s="4">
+      <c r="F45" s="4">
         <f>SUM(C$2:C45)/SUM(C$2:C$72)</f>
         <v>0.96846146486150309</v>
       </c>
-      <c r="F45" s="4">
+      <c r="G45" s="4">
         <f>SUM(D$2:D45)/SUM(D$2:D$72)</f>
         <v>0.96630557674450535</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H45" s="4">
+        <f t="shared" si="0"/>
+        <v>3.4791034857103623E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1697,16 +1892,20 @@
       <c r="D46" s="6">
         <v>24024</v>
       </c>
-      <c r="E46" s="4">
+      <c r="F46" s="4">
         <f>SUM(C$2:C46)/SUM(C$2:C$72)</f>
         <v>0.97061426589484767</v>
       </c>
-      <c r="F46" s="4">
+      <c r="G46" s="4">
         <f>SUM(D$2:D46)/SUM(D$2:D$72)</f>
         <v>0.97019470234526062</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H46" s="4">
+        <f t="shared" si="0"/>
+        <v>3.1122275149205295E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1719,16 +1918,20 @@
       <c r="D47" s="6">
         <v>20915</v>
       </c>
-      <c r="E47" s="4">
+      <c r="F47" s="4">
         <f>SUM(C$2:C47)/SUM(C$2:C$72)</f>
         <v>0.97599626847820886</v>
       </c>
-      <c r="F47" s="4">
+      <c r="G47" s="4">
         <f>SUM(D$2:D47)/SUM(D$2:D$72)</f>
         <v>0.97358052743432977</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H47" s="4">
+        <f t="shared" si="0"/>
+        <v>2.7094671359708156E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1741,16 +1944,20 @@
       <c r="D48" s="6">
         <v>19091</v>
       </c>
-      <c r="E48" s="4">
+      <c r="F48" s="4">
         <f>SUM(C$2:C48)/SUM(C$2:C$72)</f>
         <v>0.97765870927618048</v>
       </c>
-      <c r="F48" s="4">
+      <c r="G48" s="4">
         <f>SUM(D$2:D48)/SUM(D$2:D$72)</f>
         <v>0.97667107425600885</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H48" s="4">
+        <f t="shared" si="0"/>
+        <v>2.4731741378349912E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1763,16 +1970,20 @@
       <c r="D49" s="6">
         <v>16266</v>
       </c>
-      <c r="E49" s="4">
+      <c r="F49" s="4">
         <f>SUM(C$2:C49)/SUM(C$2:C$72)</f>
         <v>0.9802061904989714</v>
       </c>
-      <c r="F49" s="4">
+      <c r="G49" s="4">
         <f>SUM(D$2:D49)/SUM(D$2:D$72)</f>
         <v>0.97930429591026646</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H49" s="4">
+        <f t="shared" si="0"/>
+        <v>2.1072049932441449E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1785,16 +1996,20 @@
       <c r="D50" s="6">
         <v>14965</v>
       </c>
-      <c r="E50" s="4">
+      <c r="F50" s="4">
         <f>SUM(C$2:C50)/SUM(C$2:C$72)</f>
         <v>0.98125867100416209</v>
       </c>
-      <c r="F50" s="4">
+      <c r="G50" s="4">
         <f>SUM(D$2:D50)/SUM(D$2:D$72)</f>
         <v>0.98172690515998773</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H50" s="4">
+        <f t="shared" si="0"/>
+        <v>1.9386648668325727E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1807,16 +2022,20 @@
       <c r="D51" s="6">
         <v>13349</v>
       </c>
-      <c r="E51" s="4">
+      <c r="F51" s="4">
         <f>SUM(C$2:C51)/SUM(C$2:C$72)</f>
         <v>0.98326795196861694</v>
       </c>
-      <c r="F51" s="4">
+      <c r="G51" s="4">
         <f>SUM(D$2:D51)/SUM(D$2:D$72)</f>
         <v>0.98388790822544236</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H51" s="4">
+        <f t="shared" si="0"/>
+        <v>1.7293175614666229E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1829,16 +2048,20 @@
       <c r="D52" s="6">
         <v>10911</v>
       </c>
-      <c r="E52" s="4">
+      <c r="F52" s="4">
         <f>SUM(C$2:C52)/SUM(C$2:C$72)</f>
         <v>0.98416495239917712</v>
       </c>
-      <c r="F52" s="4">
+      <c r="G52" s="4">
         <f>SUM(D$2:D52)/SUM(D$2:D$72)</f>
         <v>0.98565423562428689</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H52" s="4">
+        <f t="shared" si="0"/>
+        <v>1.4134829510197261E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1851,16 +2074,20 @@
       <c r="D53" s="6">
         <v>10650</v>
       </c>
-      <c r="E53" s="4">
+      <c r="F53" s="4">
         <f>SUM(C$2:C53)/SUM(C$2:C$72)</f>
         <v>0.9857436731569631</v>
       </c>
-      <c r="F53" s="4">
+      <c r="G53" s="4">
         <f>SUM(D$2:D53)/SUM(D$2:D$72)</f>
         <v>0.98737831103421214</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H53" s="4">
+        <f t="shared" si="0"/>
+        <v>1.3796712884575275E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1873,16 +2100,20 @@
       <c r="D54" s="6">
         <v>9756</v>
       </c>
-      <c r="E54" s="4">
+      <c r="F54" s="4">
         <f>SUM(C$2:C54)/SUM(C$2:C$72)</f>
         <v>0.98682007367363533</v>
       </c>
-      <c r="F54" s="4">
+      <c r="G54" s="4">
         <f>SUM(D$2:D54)/SUM(D$2:D$72)</f>
         <v>0.9889576612407126</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H54" s="4">
+        <f t="shared" si="0"/>
+        <v>1.2638566281870083E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1895,16 +2126,20 @@
       <c r="D55" s="6">
         <v>8816</v>
       </c>
-      <c r="E55" s="4">
+      <c r="F55" s="4">
         <f>SUM(C$2:C55)/SUM(C$2:C$72)</f>
         <v>0.98782471415586282</v>
       </c>
-      <c r="F55" s="4">
+      <c r="G55" s="4">
         <f>SUM(D$2:D55)/SUM(D$2:D$72)</f>
         <v>0.99038483953309775</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H55" s="4">
+        <f t="shared" si="0"/>
+        <v>1.1420828243231514E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1917,16 +2152,20 @@
       <c r="D56" s="6">
         <v>6672</v>
       </c>
-      <c r="E56" s="4">
+      <c r="F56" s="4">
         <f>SUM(C$2:C56)/SUM(C$2:C$72)</f>
         <v>0.98920011481605508</v>
       </c>
-      <c r="F56" s="4">
+      <c r="G56" s="4">
         <f>SUM(D$2:D56)/SUM(D$2:D$72)</f>
         <v>0.99146493635328747</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H56" s="4">
+        <f t="shared" si="0"/>
+        <v>8.643349142336736E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -1939,16 +2178,20 @@
       <c r="D57" s="6">
         <v>6563</v>
       </c>
-      <c r="E57" s="4">
+      <c r="F57" s="4">
         <f>SUM(C$2:C57)/SUM(C$2:C$72)</f>
         <v>0.98970243505716882</v>
       </c>
-      <c r="F57" s="4">
+      <c r="G57" s="4">
         <f>SUM(D$2:D57)/SUM(D$2:D$72)</f>
         <v>0.99252738770684046</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H57" s="4">
+        <f t="shared" si="0"/>
+        <v>8.5021433484946032E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -1961,16 +2204,20 @@
       <c r="D58" s="6">
         <v>6046</v>
       </c>
-      <c r="E58" s="4">
+      <c r="F58" s="4">
         <f>SUM(C$2:C58)/SUM(C$2:C$72)</f>
         <v>0.99369707697459697</v>
       </c>
-      <c r="F58" s="4">
+      <c r="G58" s="4">
         <f>SUM(D$2:D58)/SUM(D$2:D$72)</f>
         <v>0.99350614450762997</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H58" s="4">
+        <f t="shared" si="0"/>
+        <v>7.8323874272433914E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -1983,16 +2230,20 @@
       <c r="D59" s="6">
         <v>5869</v>
       </c>
-      <c r="E59" s="4">
+      <c r="F59" s="4">
         <f>SUM(C$2:C59)/SUM(C$2:C$72)</f>
         <v>0.99435487729034111</v>
       </c>
-      <c r="F59" s="4">
+      <c r="G59" s="4">
         <f>SUM(D$2:D59)/SUM(D$2:D$72)</f>
         <v>0.99445624766076157</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H59" s="4">
+        <f t="shared" si="0"/>
+        <v>7.6030899454997457E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2005,16 +2256,20 @@
       <c r="D60" s="6">
         <v>5466</v>
       </c>
-      <c r="E60" s="4">
+      <c r="F60" s="4">
         <f>SUM(C$2:C60)/SUM(C$2:C$72)</f>
         <v>0.9948811175429364</v>
       </c>
-      <c r="F60" s="4">
+      <c r="G60" s="4">
         <f>SUM(D$2:D60)/SUM(D$2:D$72)</f>
         <v>0.99534111115284152</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H60" s="4">
+        <f t="shared" si="0"/>
+        <v>7.0810171480834225E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2027,16 +2282,20 @@
       <c r="D61" s="6">
         <v>5332</v>
       </c>
-      <c r="E61" s="4">
+      <c r="F61" s="4">
         <f>SUM(C$2:C61)/SUM(C$2:C$72)</f>
         <v>0.99540735779553169</v>
       </c>
-      <c r="F61" s="4">
+      <c r="G61" s="4">
         <f>SUM(D$2:D61)/SUM(D$2:D$72)</f>
         <v>0.99620428205290923</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H61" s="4">
+        <f t="shared" si="0"/>
+        <v>6.9074247042774988E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2049,16 +2308,20 @@
       <c r="D62" s="6">
         <v>5189</v>
       </c>
-      <c r="E62" s="4">
+      <c r="F62" s="4">
         <f>SUM(C$2:C62)/SUM(C$2:C$72)</f>
         <v>0.99620867818016556</v>
       </c>
-      <c r="F62" s="4">
+      <c r="G62" s="4">
         <f>SUM(D$2:D62)/SUM(D$2:D$72)</f>
         <v>0.99704430339582961</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H62" s="4">
+        <f t="shared" si="0"/>
+        <v>6.7221730664846109E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2071,16 +2334,20 @@
       <c r="D63" s="6">
         <v>5130</v>
       </c>
-      <c r="E63" s="4">
+      <c r="F63" s="4">
         <f>SUM(C$2:C63)/SUM(C$2:C$72)</f>
         <v>0.99680667846720561</v>
       </c>
-      <c r="F63" s="4">
+      <c r="G63" s="4">
         <f>SUM(D$2:D63)/SUM(D$2:D$72)</f>
         <v>0.99787477352286402</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H63" s="4">
+        <f t="shared" si="0"/>
+        <v>6.6457405725700624E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2093,16 +2360,20 @@
       <c r="D64" s="6">
         <v>4623</v>
       </c>
-      <c r="E64" s="4">
+      <c r="F64" s="4">
         <f>SUM(C$2:C64)/SUM(C$2:C$72)</f>
         <v>0.99769171889202501</v>
       </c>
-      <c r="F64" s="4">
+      <c r="G64" s="4">
         <f>SUM(D$2:D64)/SUM(D$2:D$72)</f>
         <v>0.99862316794728501</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H64" s="4">
+        <f t="shared" si="0"/>
+        <v>5.9889393113043655E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2115,16 +2386,20 @@
       <c r="D65" s="6">
         <v>2885</v>
       </c>
-      <c r="E65" s="4">
+      <c r="F65" s="4">
         <f>SUM(C$2:C65)/SUM(C$2:C$72)</f>
         <v>0.99795483901832271</v>
       </c>
-      <c r="F65" s="4">
+      <c r="G65" s="4">
         <f>SUM(D$2:D65)/SUM(D$2:D$72)</f>
         <v>0.99909020621560751</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H65" s="4">
+        <f t="shared" si="0"/>
+        <v>3.7374194058215652E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2137,16 +2412,20 @@
       <c r="D66" s="6">
         <v>2395</v>
       </c>
-      <c r="E66" s="4">
+      <c r="F66" s="4">
         <f>SUM(C$2:C66)/SUM(C$2:C$72)</f>
         <v>0.99946179974166383</v>
       </c>
-      <c r="F66" s="4">
+      <c r="G66" s="4">
         <f>SUM(D$2:D66)/SUM(D$2:D$72)</f>
         <v>0.99947792082657194</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H66" s="4">
+        <f t="shared" si="0"/>
+        <v>3.1026410665312473E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2159,16 +2438,20 @@
       <c r="D67" s="6">
         <v>1483</v>
       </c>
-      <c r="E67" s="4">
+      <c r="F67" s="4">
         <f>SUM(C$2:C67)/SUM(C$2:C$72)</f>
         <v>0.99959335980481268</v>
       </c>
-      <c r="F67" s="4">
+      <c r="G67" s="4">
         <f>SUM(D$2:D67)/SUM(D$2:D$72)</f>
         <v>0.99971799630384128</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H67" s="4">
+        <f t="shared" ref="H67:H72" si="1">D67/771923</f>
+        <v>1.9211760758521251E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2181,16 +2464,20 @@
       <c r="D68" s="6">
         <v>735</v>
       </c>
-      <c r="E68" s="4">
+      <c r="F68" s="4">
         <f>SUM(C$2:C68)/SUM(C$2:C$72)</f>
         <v>0.99982059991388794</v>
       </c>
-      <c r="F68" s="4">
+      <c r="G68" s="4">
         <f>SUM(D$2:D68)/SUM(D$2:D$72)</f>
         <v>0.99983698178987845</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H68" s="4">
+        <f t="shared" si="1"/>
+        <v>9.5216750893547674E-4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2203,16 +2490,20 @@
       <c r="D69" s="6">
         <v>560</v>
       </c>
-      <c r="E69" s="4">
+      <c r="F69" s="4">
         <f>SUM(C$2:C69)/SUM(C$2:C$72)</f>
         <v>0.99990431995407358</v>
       </c>
-      <c r="F69" s="4">
+      <c r="G69" s="4">
         <f>SUM(D$2:D69)/SUM(D$2:D$72)</f>
         <v>0.99992763739828761</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H69" s="4">
+        <f t="shared" si="1"/>
+        <v>7.254609591889347E-4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2225,16 +2516,20 @@
       <c r="D70" s="6">
         <v>302</v>
       </c>
-      <c r="E70" s="4">
+      <c r="F70" s="4">
         <f>SUM(C$2:C70)/SUM(C$2:C$72)</f>
         <v>0.99995215997703679</v>
       </c>
-      <c r="F70" s="4">
+      <c r="G70" s="4">
         <f>SUM(D$2:D70)/SUM(D$2:D$72)</f>
         <v>0.99997652667282266</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H70" s="4">
+        <f t="shared" si="1"/>
+        <v>3.9123073156260407E-4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2247,16 +2542,20 @@
       <c r="D71" s="6">
         <v>127</v>
       </c>
-      <c r="E71" s="4">
+      <c r="F71" s="4">
         <f>SUM(C$2:C71)/SUM(C$2:C$72)</f>
         <v>0.99998803999425923</v>
       </c>
-      <c r="F71" s="4">
+      <c r="G71" s="4">
         <f>SUM(D$2:D71)/SUM(D$2:D$72)</f>
         <v>0.9999970860697297</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H71" s="4">
+        <f t="shared" si="1"/>
+        <v>1.6452418181606197E-4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2269,13 +2568,17 @@
       <c r="D72" s="6">
         <v>18</v>
       </c>
-      <c r="E72" s="4">
+      <c r="F72" s="4">
         <f>SUM(C$2:C72)/SUM(C$2:C$72)</f>
         <v>1</v>
       </c>
-      <c r="F72" s="4">
+      <c r="G72" s="4">
         <f>SUM(D$2:D72)/SUM(D$2:D$72)</f>
         <v>1</v>
+      </c>
+      <c r="H72" s="4">
+        <f t="shared" si="1"/>
+        <v>2.3318387973930041E-5</v>
       </c>
     </row>
   </sheetData>
